--- a/Code/Results/Cases/Case_2_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.39477920024761</v>
+        <v>16.01959406949101</v>
       </c>
       <c r="C2">
-        <v>13.32944533105966</v>
+        <v>11.56160852720786</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.442947313684758</v>
+        <v>12.62012424210234</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.089364619396005</v>
+        <v>3.64600382952929</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.165172837340434</v>
+        <v>9.88586572817043</v>
       </c>
       <c r="M2">
-        <v>12.45620671164145</v>
+        <v>15.00433438426004</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.8635917326884</v>
+        <v>23.07330189003273</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95232427554671</v>
+        <v>15.47743330537129</v>
       </c>
       <c r="C3">
-        <v>12.82199813098245</v>
+        <v>11.36865213472484</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.588372664464265</v>
+        <v>12.67513737068431</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.095211512883896</v>
+        <v>3.648155361637756</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.084834110565175</v>
+        <v>9.893599138980672</v>
       </c>
       <c r="M3">
-        <v>11.8495900428867</v>
+        <v>14.88393752972507</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.08524797630645</v>
+        <v>23.22836449595287</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.01440782368938</v>
+        <v>15.13592483686533</v>
       </c>
       <c r="C4">
-        <v>12.50107647048413</v>
+        <v>11.24840691616104</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.680547797684399</v>
+        <v>12.71070804212539</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.098903969515745</v>
+        <v>3.64954555217778</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.037854701594565</v>
+        <v>9.899691366085174</v>
       </c>
       <c r="M4">
-        <v>11.46464950146803</v>
+        <v>14.81130383484449</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.24241868090811</v>
+        <v>23.33044211671279</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.61897434324162</v>
+        <v>14.99479007538513</v>
       </c>
       <c r="C5">
-        <v>12.36808422664793</v>
+        <v>11.19900722928376</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.718847980534561</v>
+        <v>12.72565542805511</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.100435208836029</v>
+        <v>3.650129508189428</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.019306561333212</v>
+        <v>9.902512373902034</v>
       </c>
       <c r="M5">
-        <v>11.30481902572795</v>
+        <v>14.78205326360548</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.31142810478952</v>
+        <v>23.37376212632723</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55251162406118</v>
+        <v>14.97124214392986</v>
       </c>
       <c r="C6">
-        <v>12.34587157816986</v>
+        <v>11.19078173580835</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.725252646301413</v>
+        <v>12.7281647720885</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.100691094401847</v>
+        <v>3.650227528744636</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.016262821082438</v>
+        <v>9.90300124895205</v>
       </c>
       <c r="M6">
-        <v>11.27810593183106</v>
+        <v>14.77721794452144</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.32317726758415</v>
+        <v>23.38105928652141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.00912853213049</v>
+        <v>15.13402913170205</v>
       </c>
       <c r="C7">
-        <v>12.49929166193129</v>
+        <v>11.24774224750859</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.681061322022992</v>
+        <v>12.71090779569355</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.098924511916157</v>
+        <v>3.649553356916678</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.037602133500837</v>
+        <v>9.899728040569942</v>
       </c>
       <c r="M7">
-        <v>11.46250572218454</v>
+        <v>14.81090791043095</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.24332970852873</v>
+        <v>23.33101937699914</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90821029675194</v>
+        <v>15.8345604890184</v>
       </c>
       <c r="C8">
-        <v>13.1564937625395</v>
+        <v>11.49547159892362</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.492499525969983</v>
+        <v>12.63872156583369</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.091359845499676</v>
+        <v>3.646731361328775</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.136988226362136</v>
+        <v>9.888253570099993</v>
       </c>
       <c r="M8">
-        <v>12.24972905163056</v>
+        <v>14.96256812926467</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.93543476437408</v>
+        <v>23.12533911250684</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.22183970172177</v>
+        <v>17.13203413288872</v>
       </c>
       <c r="C9">
-        <v>14.36601986434731</v>
+        <v>11.96527893718673</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.144992266746661</v>
+        <v>12.51132515867677</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.077301149801631</v>
+        <v>3.641743480592855</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.350239282271543</v>
+        <v>9.87639407861052</v>
       </c>
       <c r="M9">
-        <v>13.68837310635327</v>
+        <v>15.26914647680965</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.51516441916548</v>
+        <v>22.77670904607631</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.41192114617742</v>
+        <v>18.02949795789992</v>
       </c>
       <c r="C10">
-        <v>15.20075449574007</v>
+        <v>12.29820290831805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.902350603038275</v>
+        <v>12.42627373917748</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.067389593096213</v>
+        <v>3.638408176861315</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.51770985854924</v>
+        <v>9.874137627220891</v>
       </c>
       <c r="M10">
-        <v>14.83548976295996</v>
+        <v>15.4985289045445</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.34223115674379</v>
+        <v>22.55421468472068</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.35647124175044</v>
+        <v>18.42403499875584</v>
       </c>
       <c r="C11">
-        <v>15.56792666718815</v>
+        <v>12.44650785967663</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.794510843566915</v>
+        <v>12.3894192010721</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.062957930577756</v>
+        <v>3.63696159859351</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.596156635993116</v>
+        <v>9.87450519771606</v>
       </c>
       <c r="M11">
-        <v>15.34600968417016</v>
+        <v>15.60346567392029</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.29861061786726</v>
+        <v>22.46036757434746</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.7068191783172</v>
+        <v>18.57134740879213</v>
       </c>
       <c r="C12">
-        <v>15.70510640336794</v>
+        <v>12.50217650571535</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.754022141783314</v>
+        <v>12.37572595157918</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.061289686126967</v>
+        <v>3.636423921070471</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.626181124282808</v>
+        <v>9.87484403408439</v>
       </c>
       <c r="M12">
-        <v>15.53556032411552</v>
+        <v>15.64326070915151</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.28760932204716</v>
+        <v>22.42589528458691</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.63168987185911</v>
+        <v>18.53971571731265</v>
       </c>
       <c r="C13">
-        <v>15.67564577745086</v>
+        <v>12.49020971446452</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.762726919948816</v>
+        <v>12.37866337064734</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.061648550301286</v>
+        <v>3.636539270707324</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.619700756120666</v>
+        <v>9.874762194131234</v>
       </c>
       <c r="M13">
-        <v>15.49490418619419</v>
+        <v>15.63468799663173</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.28972561383558</v>
+        <v>22.43327201602915</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.38544091330051</v>
+        <v>18.43619698878685</v>
       </c>
       <c r="C14">
-        <v>15.57925008249798</v>
+        <v>12.45109781410039</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.791172943555774</v>
+        <v>12.38828738995186</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.062820491086415</v>
+        <v>3.636917161210075</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.598620425064055</v>
+        <v>9.874529077741318</v>
       </c>
       <c r="M14">
-        <v>15.36167944865012</v>
+        <v>15.60673863228121</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.29759221022176</v>
+        <v>22.4575101262542</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.23365460004618</v>
+        <v>18.37251334877973</v>
       </c>
       <c r="C15">
-        <v>15.51996123760513</v>
+        <v>12.4270755490722</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.808641731780956</v>
+        <v>12.39421656333312</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.063539595722721</v>
+        <v>3.637149945180592</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.585749382471687</v>
+        <v>9.874412261428891</v>
       </c>
       <c r="M15">
-        <v>15.27958564907323</v>
+        <v>15.5896255610729</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.30314347314993</v>
+        <v>22.47249562610209</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.34916061044857</v>
+        <v>18.00342757140937</v>
       </c>
       <c r="C16">
-        <v>15.17650130802684</v>
+        <v>12.28844417471431</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.909447823148255</v>
+        <v>12.42871910608677</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.067680667670086</v>
+        <v>3.638504131747119</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.512628099838428</v>
+        <v>9.874141589279041</v>
       </c>
       <c r="M16">
-        <v>14.80159561327352</v>
+        <v>15.49168059183119</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.34582769428206</v>
+        <v>22.56049658167979</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79337717358267</v>
+        <v>17.77340277991569</v>
       </c>
       <c r="C17">
-        <v>14.96254113866376</v>
+        <v>12.20256458597097</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.971927415872367</v>
+        <v>12.45035461533854</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.070240041296075</v>
+        <v>3.639352944230784</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.468345012264367</v>
+        <v>9.874332031627647</v>
       </c>
       <c r="M17">
-        <v>14.50159489244805</v>
+        <v>15.43172628081976</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.38132609523936</v>
+        <v>22.61637350311207</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.46882968981618</v>
+        <v>17.63981288901961</v>
       </c>
       <c r="C18">
-        <v>14.83829781952712</v>
+        <v>12.15287521369947</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.008104103154368</v>
+        <v>12.46297165244823</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.07171946226795</v>
+        <v>3.639847813407458</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.44308799643077</v>
+        <v>9.87457283643846</v>
       </c>
       <c r="M18">
-        <v>14.32654030565664</v>
+        <v>15.39729925391653</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.4050133633418</v>
+        <v>22.64920543428488</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.35810295123775</v>
+        <v>17.59436461695283</v>
       </c>
       <c r="C19">
-        <v>14.796030558035</v>
+        <v>12.13600202933449</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.020394653776722</v>
+        <v>12.46727329135672</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.072221662967523</v>
+        <v>3.64001651213845</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.434573293852183</v>
+        <v>9.874676937736542</v>
       </c>
       <c r="M19">
-        <v>14.26683878625256</v>
+        <v>15.38565348670987</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.4135806222076</v>
+        <v>22.6604405982217</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.85304511680523</v>
+        <v>17.79802326911213</v>
       </c>
       <c r="C20">
-        <v>14.98544003737046</v>
+        <v>12.21173730235527</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.96525163175294</v>
+        <v>12.44803359648165</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.069966840411032</v>
+        <v>3.639261898333532</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.473036985948788</v>
+        <v>9.874298178701006</v>
       </c>
       <c r="M20">
-        <v>14.53378912567212</v>
+        <v>15.43810280516987</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.37720541725422</v>
+        <v>22.61035354130494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.45796834305285</v>
+        <v>18.46666053672924</v>
       </c>
       <c r="C21">
-        <v>15.60761470192475</v>
+        <v>12.46259956027618</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.782808357286059</v>
+        <v>12.38545346050756</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.062476003906959</v>
+        <v>3.636805891629539</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.604803640253307</v>
+        <v>9.874592138237851</v>
       </c>
       <c r="M21">
-        <v>15.4009127685061</v>
+        <v>15.61494668540609</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.29512803630525</v>
+        <v>22.45036183574899</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.46419031332467</v>
+        <v>18.89142589096832</v>
       </c>
       <c r="C22">
-        <v>16.00338132353801</v>
+        <v>12.62367269472228</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.665590202611541</v>
+        <v>12.34608475686551</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.057637581176629</v>
+        <v>3.635259655938942</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.692774046585797</v>
+        <v>9.875947511624576</v>
       </c>
       <c r="M22">
-        <v>15.94566603388905</v>
+        <v>15.73084860004052</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.27386708968132</v>
+        <v>22.35201200184256</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.93102053354739</v>
+        <v>18.66587444435889</v>
       </c>
       <c r="C23">
-        <v>15.79316192401824</v>
+        <v>12.53798081682824</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.727972911163429</v>
+        <v>12.36695688528367</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.060215107024154</v>
+        <v>3.636079538056798</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.64565510529263</v>
+        <v>9.875117974804247</v>
       </c>
       <c r="M23">
-        <v>15.65691402639643</v>
+        <v>15.66896879738631</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.28209241965652</v>
+        <v>22.40393247165095</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.82608488437954</v>
+        <v>17.78689652810049</v>
       </c>
       <c r="C24">
-        <v>14.97509128694733</v>
+        <v>12.20759129874702</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.968268954025131</v>
+        <v>12.44908237301484</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.070090329516948</v>
+        <v>3.639303038762198</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.47091511515381</v>
+        <v>9.874313074509299</v>
       </c>
       <c r="M24">
-        <v>14.51924215290089</v>
+        <v>15.43521984715451</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.37905819924969</v>
+        <v>22.61307296249818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36877067818683</v>
+        <v>16.79022451877639</v>
       </c>
       <c r="C25">
-        <v>14.04793407747939</v>
+        <v>11.84015998022909</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.23670940943134</v>
+        <v>12.54428219704282</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.081026869695369</v>
+        <v>3.643034749268417</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.290623868492331</v>
+        <v>9.87846600089526</v>
       </c>
       <c r="M25">
-        <v>13.31117783709157</v>
+        <v>15.18537566566898</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.60682265163486</v>
+        <v>22.86513618304211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.01959406949101</v>
+        <v>21.39477920024763</v>
       </c>
       <c r="C2">
-        <v>11.56160852720786</v>
+        <v>13.32944533105968</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.62012424210234</v>
+        <v>7.442947313684754</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.64600382952929</v>
+        <v>2.089364619396007</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.88586572817043</v>
+        <v>6.165172837340379</v>
       </c>
       <c r="M2">
-        <v>15.00433438426004</v>
+        <v>12.45620671164143</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.07330189003273</v>
+        <v>13.86359173268826</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.47743330537129</v>
+        <v>19.95232427554669</v>
       </c>
       <c r="C3">
-        <v>11.36865213472484</v>
+        <v>12.82199813098248</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.67513737068431</v>
+        <v>7.58837266446426</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.648155361637756</v>
+        <v>2.095211512884029</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.893599138980672</v>
+        <v>6.084834110565153</v>
       </c>
       <c r="M3">
-        <v>14.88393752972507</v>
+        <v>11.84959004288672</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.22836449595287</v>
+        <v>14.08524797630642</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.13592483686533</v>
+        <v>19.01440782368938</v>
       </c>
       <c r="C4">
-        <v>11.24840691616104</v>
+        <v>12.50107647048409</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.71070804212539</v>
+        <v>7.680547797684331</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.64954555217778</v>
+        <v>2.098903969515479</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.899691366085174</v>
+        <v>6.037854701594507</v>
       </c>
       <c r="M4">
-        <v>14.81130383484449</v>
+        <v>11.46464950146801</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.33044211671279</v>
+        <v>14.24241868090824</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.99479007538513</v>
+        <v>18.61897434324165</v>
       </c>
       <c r="C5">
-        <v>11.19900722928376</v>
+        <v>12.36808422664792</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.72565542805511</v>
+        <v>7.718847980534495</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.650129508189428</v>
+        <v>2.100435208836162</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.902512373902034</v>
+        <v>6.019306561333234</v>
       </c>
       <c r="M5">
-        <v>14.78205326360548</v>
+        <v>11.30481902572794</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.37376212632723</v>
+        <v>14.31142810478967</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.97124214392986</v>
+        <v>18.5525116240612</v>
       </c>
       <c r="C6">
-        <v>11.19078173580835</v>
+        <v>12.34587157816995</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.7281647720885</v>
+        <v>7.725252646301413</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.650227528744636</v>
+        <v>2.100691094401713</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.90300124895205</v>
+        <v>6.016262821082464</v>
       </c>
       <c r="M6">
-        <v>14.77721794452144</v>
+        <v>11.27810593183106</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.38105928652141</v>
+        <v>14.32317726758426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.13402913170205</v>
+        <v>19.00912853213049</v>
       </c>
       <c r="C7">
-        <v>11.24774224750859</v>
+        <v>12.49929166193126</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.71090779569355</v>
+        <v>7.681061322023059</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.649553356916678</v>
+        <v>2.098924511916157</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.899728040569942</v>
+        <v>6.037602133500861</v>
       </c>
       <c r="M7">
-        <v>14.81090791043095</v>
+        <v>11.46250572218454</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.33101937699914</v>
+        <v>14.24332970852884</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.8345604890184</v>
+        <v>20.90821029675191</v>
       </c>
       <c r="C8">
-        <v>11.49547159892362</v>
+        <v>13.15649376253982</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.63872156583369</v>
+        <v>7.492499525970117</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.646731361328775</v>
+        <v>2.09135984549981</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.888253570099993</v>
+        <v>6.136988226362101</v>
       </c>
       <c r="M8">
-        <v>14.96256812926467</v>
+        <v>12.24972905163057</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.12533911250684</v>
+        <v>13.93543476437398</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.13203413288872</v>
+        <v>24.22183970172176</v>
       </c>
       <c r="C9">
-        <v>11.96527893718673</v>
+        <v>14.36601986434734</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.51132515867677</v>
+        <v>7.144992266746662</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.641743480592855</v>
+        <v>2.077301149801229</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.87639407861052</v>
+        <v>6.350239282271549</v>
       </c>
       <c r="M9">
-        <v>15.26914647680965</v>
+        <v>13.68837310635328</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.77670904607631</v>
+        <v>13.51516441916546</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.02949795789992</v>
+        <v>26.41192114617743</v>
       </c>
       <c r="C10">
-        <v>12.29820290831805</v>
+        <v>15.20075449574019</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.42627373917748</v>
+        <v>6.902350603038346</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.638408176861315</v>
+        <v>2.067389593096348</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.874137627220891</v>
+        <v>6.517709858549224</v>
       </c>
       <c r="M10">
-        <v>15.4985289045445</v>
+        <v>14.83548976295997</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.55421468472068</v>
+        <v>13.34223115674393</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.42403499875584</v>
+        <v>27.35647124175045</v>
       </c>
       <c r="C11">
-        <v>12.44650785967663</v>
+        <v>15.56792666718798</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.3894192010721</v>
+        <v>6.794510843566714</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.63696159859351</v>
+        <v>2.062957930577622</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.87450519771606</v>
+        <v>6.596156635993093</v>
       </c>
       <c r="M11">
-        <v>15.60346567392029</v>
+        <v>15.34600968417017</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.46036757434746</v>
+        <v>13.29861061786733</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.57134740879213</v>
+        <v>27.70681917831713</v>
       </c>
       <c r="C12">
-        <v>12.50217650571535</v>
+        <v>15.70510640336811</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.37572595157918</v>
+        <v>6.754022141783382</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.636423921070471</v>
+        <v>2.061289686126965</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.87484403408439</v>
+        <v>6.626181124282825</v>
       </c>
       <c r="M12">
-        <v>15.64326070915151</v>
+        <v>15.53556032411547</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.42589528458691</v>
+        <v>13.28760932204724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.53971571731265</v>
+        <v>27.63168987185914</v>
       </c>
       <c r="C13">
-        <v>12.49020971446452</v>
+        <v>15.67564577745081</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.37866337064734</v>
+        <v>6.762726919948814</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.636539270707324</v>
+        <v>2.06164855030115</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.874762194131234</v>
+        <v>6.619700756120639</v>
       </c>
       <c r="M13">
-        <v>15.63468799663173</v>
+        <v>15.4949041861942</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.43327201602915</v>
+        <v>13.28972561383553</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.43619698878685</v>
+        <v>27.38544091330055</v>
       </c>
       <c r="C14">
-        <v>12.45109781410039</v>
+        <v>15.57925008249808</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.38828738995186</v>
+        <v>6.79117294355564</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.636917161210075</v>
+        <v>2.062820491086282</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.874529077741318</v>
+        <v>6.598620425064015</v>
       </c>
       <c r="M14">
-        <v>15.60673863228121</v>
+        <v>15.36167944865015</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.4575101262542</v>
+        <v>13.29759221022172</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.37251334877973</v>
+        <v>27.23365460004623</v>
       </c>
       <c r="C15">
-        <v>12.4270755490722</v>
+        <v>15.51996123760513</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.39421656333312</v>
+        <v>6.808641731780751</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.637149945180592</v>
+        <v>2.063539595722854</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.874412261428891</v>
+        <v>6.58574938247164</v>
       </c>
       <c r="M15">
-        <v>15.5896255610729</v>
+        <v>15.27958564907328</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.47249562610209</v>
+        <v>13.30314347314975</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.00342757140937</v>
+        <v>26.34916061044857</v>
       </c>
       <c r="C16">
-        <v>12.28844417471431</v>
+        <v>15.17650130802673</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.42871910608677</v>
+        <v>6.909447823148184</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.638504131747119</v>
+        <v>2.067680667670087</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.874141589279041</v>
+        <v>6.512628099838446</v>
       </c>
       <c r="M16">
-        <v>15.49168059183119</v>
+        <v>14.80159561327352</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.56049658167979</v>
+        <v>13.34582769428206</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.77340277991569</v>
+        <v>25.79337717358269</v>
       </c>
       <c r="C17">
-        <v>12.20256458597097</v>
+        <v>14.96254113866367</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.45035461533854</v>
+        <v>6.971927415872366</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.639352944230784</v>
+        <v>2.070240041296209</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.874332031627647</v>
+        <v>6.468345012264376</v>
       </c>
       <c r="M17">
-        <v>15.43172628081976</v>
+        <v>14.50159489244806</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.61637350311207</v>
+        <v>13.38132609523927</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.63981288901961</v>
+        <v>25.46882968981614</v>
       </c>
       <c r="C18">
-        <v>12.15287521369947</v>
+        <v>14.83829781952722</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.46297165244823</v>
+        <v>7.008104103154497</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.639847813407458</v>
+        <v>2.071719462268482</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.87457283643846</v>
+        <v>6.443087996430809</v>
       </c>
       <c r="M18">
-        <v>15.39729925391653</v>
+        <v>14.3265403056566</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.64920543428488</v>
+        <v>13.40501336334191</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.59436461695283</v>
+        <v>25.35810295123782</v>
       </c>
       <c r="C19">
-        <v>12.13600202933449</v>
+        <v>14.79603055803469</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.46727329135672</v>
+        <v>7.020394653776658</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.64001651213845</v>
+        <v>2.072221662967391</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.874676937736542</v>
+        <v>6.434573293852224</v>
       </c>
       <c r="M19">
-        <v>15.38565348670987</v>
+        <v>14.26683878625258</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.6604405982217</v>
+        <v>13.41358062220761</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.79802326911213</v>
+        <v>25.85304511680514</v>
       </c>
       <c r="C20">
-        <v>12.21173730235527</v>
+        <v>14.98544003737049</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.44803359648165</v>
+        <v>6.965251631752939</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.639261898333532</v>
+        <v>2.0699668404109</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.874298178701006</v>
+        <v>6.473036985948764</v>
       </c>
       <c r="M20">
-        <v>15.43810280516987</v>
+        <v>14.53378912567206</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.61035354130494</v>
+        <v>13.37720541725435</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.46666053672924</v>
+        <v>27.45796834305286</v>
       </c>
       <c r="C21">
-        <v>12.46259956027618</v>
+        <v>15.60761470192463</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.38545346050756</v>
+        <v>6.782808357285923</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.636805891629539</v>
+        <v>2.062476003906823</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.874592138237851</v>
+        <v>6.604803640253265</v>
       </c>
       <c r="M21">
-        <v>15.61494668540609</v>
+        <v>15.40091276850613</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.45036183574899</v>
+        <v>13.29512803630506</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.89142589096832</v>
+        <v>28.46419031332467</v>
       </c>
       <c r="C22">
-        <v>12.62367269472228</v>
+        <v>16.00338132353794</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.34608475686551</v>
+        <v>6.665590202611408</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.635259655938942</v>
+        <v>2.05763758117663</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.875947511624576</v>
+        <v>6.692774046585777</v>
       </c>
       <c r="M22">
-        <v>15.73084860004052</v>
+        <v>15.94566603388907</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.35201200184256</v>
+        <v>13.27386708968138</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.66587444435889</v>
+        <v>27.93102053354744</v>
       </c>
       <c r="C23">
-        <v>12.53798081682824</v>
+        <v>15.79316192401812</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.36695688528367</v>
+        <v>6.727972911163492</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.636079538056798</v>
+        <v>2.060215107024555</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.875117974804247</v>
+        <v>6.6456551052927</v>
       </c>
       <c r="M23">
-        <v>15.66896879738631</v>
+        <v>15.65691402639643</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.40393247165095</v>
+        <v>13.2820924196565</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.78689652810049</v>
+        <v>25.82608488437946</v>
       </c>
       <c r="C24">
-        <v>12.20759129874702</v>
+        <v>14.97509128694745</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.44908237301484</v>
+        <v>6.968268954025064</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.639303038762198</v>
+        <v>2.070090329516681</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.874313074509299</v>
+        <v>6.470915115153768</v>
       </c>
       <c r="M24">
-        <v>15.43521984715451</v>
+        <v>14.51924215290085</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.61307296249818</v>
+        <v>13.37905819925002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.79022451877639</v>
+        <v>23.3687706781868</v>
       </c>
       <c r="C25">
-        <v>11.84015998022909</v>
+        <v>14.04793407747952</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.54428219704282</v>
+        <v>7.236709409431404</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.643034749268417</v>
+        <v>2.081026869695503</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.87846600089526</v>
+        <v>6.290623868492337</v>
       </c>
       <c r="M25">
-        <v>15.18537566566898</v>
+        <v>13.3111778370916</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.86513618304211</v>
+        <v>13.60682265163492</v>
       </c>
     </row>
   </sheetData>
